--- a/Excel-XLSX/UN-SUD.xlsx
+++ b/Excel-XLSX/UN-SUD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="1045">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Uls7Xy</t>
+    <t>iqQSa0</t>
   </si>
   <si>
     <t>1967</t>
@@ -3066,10 +3066,10 @@
     <t>486</t>
   </si>
   <si>
-    <t>11003</t>
-  </si>
-  <si>
-    <t>1457</t>
+    <t>10053</t>
+  </si>
+  <si>
+    <t>1565</t>
   </si>
   <si>
     <t>487</t>
@@ -3090,27 +3090,27 @@
     <t>491</t>
   </si>
   <si>
-    <t>121976</t>
-  </si>
-  <si>
-    <t>28091</t>
+    <t>108349</t>
+  </si>
+  <si>
+    <t>23664</t>
+  </si>
+  <si>
+    <t>49547</t>
+  </si>
+  <si>
+    <t>20348</t>
+  </si>
+  <si>
+    <t>11663</t>
+  </si>
+  <si>
+    <t>3289</t>
   </si>
   <si>
     <t>493</t>
   </si>
   <si>
-    <t>57750</t>
-  </si>
-  <si>
-    <t>14922</t>
-  </si>
-  <si>
-    <t>5959</t>
-  </si>
-  <si>
-    <t>3121</t>
-  </si>
-  <si>
     <t>494</t>
   </si>
   <si>
@@ -3129,37 +3129,28 @@
     <t>499</t>
   </si>
   <si>
-    <t>662080</t>
-  </si>
-  <si>
-    <t>171787</t>
+    <t>613052</t>
+  </si>
+  <si>
+    <t>292919</t>
+  </si>
+  <si>
+    <t>11559970</t>
+  </si>
+  <si>
+    <t>32823</t>
   </si>
   <si>
     <t>502</t>
   </si>
   <si>
-    <t>10540215</t>
-  </si>
-  <si>
-    <t>27282</t>
+    <t>9860</t>
   </si>
   <si>
     <t>503</t>
   </si>
   <si>
-    <t>9912</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>868</t>
+    <t>877</t>
   </si>
 </sst>
 </file>
@@ -3544,7 +3535,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V507"/>
+  <dimension ref="A1:V504"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -36573,7 +36564,7 @@
         <v>31</v>
       </c>
       <c r="N486" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="O486" s="2" t="s">
         <v>54</v>
@@ -36712,7 +36703,7 @@
         <v>1019</v>
       </c>
       <c r="O488" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P488" s="2" t="s">
         <v>33</v>
@@ -36845,7 +36836,7 @@
         <v>31</v>
       </c>
       <c r="N490" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O490" s="2" t="s">
         <v>45</v>
@@ -36913,10 +36904,10 @@
         <v>31</v>
       </c>
       <c r="N491" s="2" t="s">
-        <v>915</v>
+        <v>757</v>
       </c>
       <c r="O491" s="2" t="s">
-        <v>322</v>
+        <v>637</v>
       </c>
       <c r="P491" s="2" t="s">
         <v>33</v>
@@ -36957,16 +36948,16 @@
         <v>1011</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>941</v>
+        <v>232</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>942</v>
+        <v>233</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>943</v>
+        <v>234</v>
       </c>
       <c r="J492" s="2" t="s">
         <v>28</v>
@@ -36981,10 +36972,10 @@
         <v>31</v>
       </c>
       <c r="N492" s="2" t="s">
-        <v>33</v>
+        <v>1024</v>
       </c>
       <c r="O492" s="2" t="s">
-        <v>45</v>
+        <v>1025</v>
       </c>
       <c r="P492" s="2" t="s">
         <v>33</v>
@@ -36999,7 +36990,7 @@
         <v>33</v>
       </c>
       <c r="T492" s="2" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="U492" s="1" t="s">
         <v>34</v>
@@ -37025,16 +37016,16 @@
         <v>1011</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="J493" s="2" t="s">
         <v>28</v>
@@ -37049,13 +37040,13 @@
         <v>31</v>
       </c>
       <c r="N493" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="O493" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="P493" s="2" t="s">
-        <v>33</v>
+        <v>1028</v>
       </c>
       <c r="Q493" s="2" t="s">
         <v>33</v>
@@ -37067,7 +37058,7 @@
         <v>33</v>
       </c>
       <c r="T493" s="2" t="s">
-        <v>152</v>
+        <v>1029</v>
       </c>
       <c r="U493" s="1" t="s">
         <v>34</v>
@@ -37087,22 +37078,22 @@
         <v>22</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>1011</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>37</v>
+        <v>574</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>38</v>
+        <v>575</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>38</v>
+        <v>576</v>
       </c>
       <c r="J494" s="2" t="s">
         <v>28</v>
@@ -37117,13 +37108,13 @@
         <v>31</v>
       </c>
       <c r="N494" s="2" t="s">
-        <v>1027</v>
+        <v>156</v>
       </c>
       <c r="O494" s="2" t="s">
-        <v>1028</v>
+        <v>98</v>
       </c>
       <c r="P494" s="2" t="s">
-        <v>1029</v>
+        <v>33</v>
       </c>
       <c r="Q494" s="2" t="s">
         <v>33</v>
@@ -37135,7 +37126,7 @@
         <v>33</v>
       </c>
       <c r="T494" s="2" t="s">
-        <v>1030</v>
+        <v>468</v>
       </c>
       <c r="U494" s="1" t="s">
         <v>34</v>
@@ -37161,16 +37152,16 @@
         <v>1011</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="J495" s="2" t="s">
         <v>28</v>
@@ -37185,10 +37176,10 @@
         <v>31</v>
       </c>
       <c r="N495" s="2" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="O495" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="P495" s="2" t="s">
         <v>33</v>
@@ -37203,7 +37194,7 @@
         <v>33</v>
       </c>
       <c r="T495" s="2" t="s">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="U495" s="1" t="s">
         <v>34</v>
@@ -37229,16 +37220,16 @@
         <v>1011</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>603</v>
+        <v>374</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>604</v>
+        <v>375</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>604</v>
+        <v>375</v>
       </c>
       <c r="J496" s="2" t="s">
         <v>28</v>
@@ -37253,10 +37244,10 @@
         <v>31</v>
       </c>
       <c r="N496" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O496" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="P496" s="2" t="s">
         <v>33</v>
@@ -37271,7 +37262,7 @@
         <v>33</v>
       </c>
       <c r="T496" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="U496" s="1" t="s">
         <v>34</v>
@@ -37297,16 +37288,16 @@
         <v>1011</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>374</v>
+        <v>767</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>375</v>
+        <v>768</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>375</v>
+        <v>769</v>
       </c>
       <c r="J497" s="2" t="s">
         <v>28</v>
@@ -37339,7 +37330,7 @@
         <v>33</v>
       </c>
       <c r="T497" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="U497" s="1" t="s">
         <v>34</v>
@@ -37365,16 +37356,16 @@
         <v>1011</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>767</v>
+        <v>544</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>768</v>
+        <v>545</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>769</v>
+        <v>546</v>
       </c>
       <c r="J498" s="2" t="s">
         <v>28</v>
@@ -37389,13 +37380,13 @@
         <v>31</v>
       </c>
       <c r="N498" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O498" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P498" s="2" t="s">
-        <v>33</v>
+        <v>861</v>
       </c>
       <c r="Q498" s="2" t="s">
         <v>33</v>
@@ -37407,7 +37398,7 @@
         <v>33</v>
       </c>
       <c r="T498" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="U498" s="1" t="s">
         <v>34</v>
@@ -37433,16 +37424,16 @@
         <v>1011</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>544</v>
+        <v>916</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>545</v>
+        <v>917</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>546</v>
+        <v>917</v>
       </c>
       <c r="J499" s="2" t="s">
         <v>28</v>
@@ -37457,7 +37448,7 @@
         <v>31</v>
       </c>
       <c r="N499" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="O499" s="2" t="s">
         <v>33</v>
@@ -37475,7 +37466,7 @@
         <v>33</v>
       </c>
       <c r="T499" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="U499" s="1" t="s">
         <v>34</v>
@@ -37501,16 +37492,16 @@
         <v>1011</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>419</v>
+        <v>250</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>916</v>
+        <v>251</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>917</v>
+        <v>252</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>917</v>
+        <v>252</v>
       </c>
       <c r="J500" s="2" t="s">
         <v>28</v>
@@ -37525,13 +37516,13 @@
         <v>31</v>
       </c>
       <c r="N500" s="2" t="s">
-        <v>33</v>
+        <v>632</v>
       </c>
       <c r="O500" s="2" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="P500" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="Q500" s="2" t="s">
         <v>33</v>
@@ -37543,7 +37534,7 @@
         <v>33</v>
       </c>
       <c r="T500" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="U500" s="1" t="s">
         <v>34</v>
@@ -37569,16 +37560,16 @@
         <v>1011</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>251</v>
+        <v>664</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>252</v>
+        <v>665</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>252</v>
+        <v>665</v>
       </c>
       <c r="J501" s="2" t="s">
         <v>28</v>
@@ -37593,13 +37584,13 @@
         <v>31</v>
       </c>
       <c r="N501" s="2" t="s">
-        <v>903</v>
+        <v>1037</v>
       </c>
       <c r="O501" s="2" t="s">
-        <v>550</v>
+        <v>33</v>
       </c>
       <c r="P501" s="2" t="s">
-        <v>96</v>
+        <v>1038</v>
       </c>
       <c r="Q501" s="2" t="s">
         <v>33</v>
@@ -37637,16 +37628,16 @@
         <v>1011</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>450</v>
+        <v>28</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>664</v>
+        <v>29</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>665</v>
+        <v>30</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>665</v>
+        <v>31</v>
       </c>
       <c r="J502" s="2" t="s">
         <v>28</v>
@@ -37661,16 +37652,16 @@
         <v>31</v>
       </c>
       <c r="N502" s="2" t="s">
-        <v>1037</v>
+        <v>33</v>
       </c>
       <c r="O502" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P502" s="2" t="s">
-        <v>1038</v>
+        <v>33</v>
       </c>
       <c r="Q502" s="2" t="s">
-        <v>33</v>
+        <v>1039</v>
       </c>
       <c r="R502" s="2" t="s">
         <v>33</v>
@@ -37685,7 +37676,7 @@
         <v>34</v>
       </c>
       <c r="V502" s="2" t="s">
-        <v>33</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="503">
@@ -37699,22 +37690,22 @@
         <v>22</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>1011</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>28</v>
+        <v>464</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>29</v>
+        <v>614</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>30</v>
+        <v>615</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>31</v>
+        <v>615</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>28</v>
@@ -37729,7 +37720,7 @@
         <v>31</v>
       </c>
       <c r="N503" s="2" t="s">
-        <v>33</v>
+        <v>1042</v>
       </c>
       <c r="O503" s="2" t="s">
         <v>33</v>
@@ -37738,7 +37729,7 @@
         <v>33</v>
       </c>
       <c r="Q503" s="2" t="s">
-        <v>1040</v>
+        <v>33</v>
       </c>
       <c r="R503" s="2" t="s">
         <v>33</v>
@@ -37753,7 +37744,7 @@
         <v>34</v>
       </c>
       <c r="V503" s="2" t="s">
-        <v>1041</v>
+        <v>33</v>
       </c>
     </row>
     <row r="504">
@@ -37767,22 +37758,22 @@
         <v>22</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>1011</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>614</v>
+        <v>706</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>615</v>
+        <v>707</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>615</v>
+        <v>707</v>
       </c>
       <c r="J504" s="2" t="s">
         <v>28</v>
@@ -37797,10 +37788,10 @@
         <v>31</v>
       </c>
       <c r="N504" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="O504" s="2" t="s">
-        <v>33</v>
+        <v>437</v>
       </c>
       <c r="P504" s="2" t="s">
         <v>33</v>
@@ -37821,210 +37812,6 @@
         <v>34</v>
       </c>
       <c r="V504" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D505" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E505" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F505" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G505" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="H505" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="I505" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="J505" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K505" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L505" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M505" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N505" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O505" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P505" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q505" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R505" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S505" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T505" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U505" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V505" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E506" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F506" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G506" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H506" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I506" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J506" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K506" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L506" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M506" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N506" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O506" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P506" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q506" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R506" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S506" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T506" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U506" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V506" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F507" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G507" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="H507" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="I507" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="J507" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K507" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L507" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M507" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N507" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O507" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="P507" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q507" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R507" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S507" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T507" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U507" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V507" s="2" t="s">
         <v>33</v>
       </c>
     </row>
